--- a/materials/exp_lists/session_2_7.xlsx
+++ b/materials/exp_lists/session_2_7.xlsx
@@ -452,7 +452,7 @@
     <t>vantimu = кость?</t>
   </si>
   <si>
-    <t>reskane</t>
+    <t>reketre</t>
   </si>
   <si>
     <t>felkure</t>
@@ -533,10 +533,10 @@
     <t>avade = газета?</t>
   </si>
   <si>
-    <t>reskane.wav</t>
-  </si>
-  <si>
-    <t>reskane = корона?</t>
+    <t>reketre.wav</t>
+  </si>
+  <si>
+    <t>reketre = корона?</t>
   </si>
   <si>
     <t>ediste.wav</t>
